--- a/Code/Results/Cases/Case_4_168/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_168/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000472630464211</v>
+        <v>1.031580648947838</v>
       </c>
       <c r="D2">
-        <v>1.017562691157903</v>
+        <v>1.035612323162507</v>
       </c>
       <c r="E2">
-        <v>1.008644969194799</v>
+        <v>1.035219840682011</v>
       </c>
       <c r="F2">
-        <v>0.9773530476777343</v>
+        <v>1.030184597301502</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040685408594489</v>
+        <v>1.035353984675241</v>
       </c>
       <c r="J2">
-        <v>1.022639214420091</v>
+        <v>1.03671558986735</v>
       </c>
       <c r="K2">
-        <v>1.028782654185709</v>
+        <v>1.038408428788788</v>
       </c>
       <c r="L2">
-        <v>1.019985165506429</v>
+        <v>1.0380170713037</v>
       </c>
       <c r="M2">
-        <v>0.9891371746383728</v>
+        <v>1.032996343376906</v>
       </c>
       <c r="N2">
-        <v>1.024091479402925</v>
+        <v>1.038187844917921</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005385963787193</v>
+        <v>1.032584800311452</v>
       </c>
       <c r="D3">
-        <v>1.021211722193131</v>
+        <v>1.036374725853028</v>
       </c>
       <c r="E3">
-        <v>1.013051259458809</v>
+        <v>1.036172015830103</v>
       </c>
       <c r="F3">
-        <v>0.9849602295050026</v>
+        <v>1.03182024049123</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042192755921326</v>
+        <v>1.035604357769741</v>
       </c>
       <c r="J3">
-        <v>1.025730871142261</v>
+        <v>1.037361397781079</v>
       </c>
       <c r="K3">
-        <v>1.031580202441729</v>
+        <v>1.038980387374563</v>
       </c>
       <c r="L3">
-        <v>1.023519826674072</v>
+        <v>1.038778216293469</v>
       </c>
       <c r="M3">
-        <v>0.9957892339709749</v>
+        <v>1.034438066176892</v>
       </c>
       <c r="N3">
-        <v>1.027187526632259</v>
+        <v>1.038834569952944</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008489905372387</v>
+        <v>1.033234373658651</v>
       </c>
       <c r="D4">
-        <v>1.023519305298939</v>
+        <v>1.036867847721962</v>
       </c>
       <c r="E4">
-        <v>1.01583982309709</v>
+        <v>1.036788308065755</v>
       </c>
       <c r="F4">
-        <v>0.9897533800976946</v>
+        <v>1.032878376671704</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043134947280196</v>
+        <v>1.035765088307554</v>
       </c>
       <c r="J4">
-        <v>1.027678903824756</v>
+        <v>1.037778519231655</v>
       </c>
       <c r="K4">
-        <v>1.033341923865454</v>
+        <v>1.039349619701264</v>
       </c>
       <c r="L4">
-        <v>1.025750761596113</v>
+        <v>1.039270280846643</v>
       </c>
       <c r="M4">
-        <v>0.9999770664783378</v>
+        <v>1.035370261352346</v>
       </c>
       <c r="N4">
-        <v>1.029138325744605</v>
+        <v>1.039252283763823</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009777537954874</v>
+        <v>1.033507412127436</v>
       </c>
       <c r="D5">
-        <v>1.024477088932426</v>
+        <v>1.037075107434477</v>
       </c>
       <c r="E5">
-        <v>1.016997778835999</v>
+        <v>1.037047438738481</v>
       </c>
       <c r="F5">
-        <v>0.9917391526598581</v>
+        <v>1.033323167423243</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043523361418128</v>
+        <v>1.035832353730503</v>
       </c>
       <c r="J5">
-        <v>1.028485787927457</v>
+        <v>1.037953695828553</v>
       </c>
       <c r="K5">
-        <v>1.034071380609711</v>
+        <v>1.039504638641469</v>
       </c>
       <c r="L5">
-        <v>1.026675726415317</v>
+        <v>1.039477038237693</v>
       </c>
       <c r="M5">
-        <v>1.001711180015655</v>
+        <v>1.035761995141987</v>
       </c>
       <c r="N5">
-        <v>1.029946355715283</v>
+        <v>1.039427709131582</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009992746080835</v>
+        <v>1.033553254040098</v>
       </c>
       <c r="D6">
-        <v>1.024637196362236</v>
+        <v>1.037109904396018</v>
       </c>
       <c r="E6">
-        <v>1.017191380406603</v>
+        <v>1.037090950359491</v>
       </c>
       <c r="F6">
-        <v>0.9920709023598612</v>
+        <v>1.033397847019023</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043588134450975</v>
+        <v>1.035843629969628</v>
       </c>
       <c r="J6">
-        <v>1.028620573348518</v>
+        <v>1.037983098136771</v>
       </c>
       <c r="K6">
-        <v>1.034193216653762</v>
+        <v>1.039530654913103</v>
       </c>
       <c r="L6">
-        <v>1.026830289490653</v>
+        <v>1.039511747479951</v>
       </c>
       <c r="M6">
-        <v>1.002000833995908</v>
+        <v>1.035827759684792</v>
       </c>
       <c r="N6">
-        <v>1.030081332547101</v>
+        <v>1.039457153194451</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008507177642438</v>
+        <v>1.033238022176647</v>
       </c>
       <c r="D7">
-        <v>1.023532151033526</v>
+        <v>1.036870617327798</v>
       </c>
       <c r="E7">
-        <v>1.015855351364678</v>
+        <v>1.036791770419232</v>
       </c>
       <c r="F7">
-        <v>0.9897800269841203</v>
+        <v>1.032884320174821</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043140167151464</v>
+        <v>1.035765988312398</v>
       </c>
       <c r="J7">
-        <v>1.027689732242141</v>
+        <v>1.037780860661466</v>
       </c>
       <c r="K7">
-        <v>1.033351714241371</v>
+        <v>1.039351691882297</v>
       </c>
       <c r="L7">
-        <v>1.025763171099332</v>
+        <v>1.039273043967063</v>
       </c>
       <c r="M7">
-        <v>1.000000339902066</v>
+        <v>1.035375496344409</v>
       </c>
       <c r="N7">
-        <v>1.029149169539585</v>
+        <v>1.039254628518734</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002149185849381</v>
+        <v>1.031920044336975</v>
       </c>
       <c r="D8">
-        <v>1.018807307106805</v>
+        <v>1.035870022911402</v>
       </c>
       <c r="E8">
-        <v>1.010147450288327</v>
+        <v>1.035541597529167</v>
       </c>
       <c r="F8">
-        <v>0.9799517262218947</v>
+        <v>1.03073742295325</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041201850185991</v>
+        <v>1.035438864068815</v>
       </c>
       <c r="J8">
-        <v>1.023695227953963</v>
+        <v>1.036934001260248</v>
       </c>
       <c r="K8">
-        <v>1.029738408059296</v>
+        <v>1.038601903770697</v>
       </c>
       <c r="L8">
-        <v>1.021191700152663</v>
+        <v>1.038274396706177</v>
       </c>
       <c r="M8">
-        <v>0.9914102912301127</v>
+        <v>1.033483727767978</v>
       </c>
       <c r="N8">
-        <v>1.025148992597141</v>
+        <v>1.038406566480029</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9903315749422458</v>
+        <v>1.029596183274567</v>
       </c>
       <c r="D9">
-        <v>1.010046670274964</v>
+        <v>1.034105285617163</v>
       </c>
       <c r="E9">
-        <v>0.9995793349660569</v>
+        <v>1.033339925084832</v>
       </c>
       <c r="F9">
-        <v>0.9615613425368895</v>
+        <v>1.026952234288878</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037519813476255</v>
+        <v>1.034852636832519</v>
       </c>
       <c r="J9">
-        <v>1.016230431463968</v>
+        <v>1.035435884910696</v>
       </c>
       <c r="K9">
-        <v>1.022978823424952</v>
+        <v>1.037274056610166</v>
       </c>
       <c r="L9">
-        <v>1.012679240855862</v>
+        <v>1.03651120485671</v>
       </c>
       <c r="M9">
-        <v>0.9753104471732045</v>
+        <v>1.030144612309823</v>
       </c>
       <c r="N9">
-        <v>1.017673595239907</v>
+        <v>1.036906322633425</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9819834644204615</v>
+        <v>1.028045933049078</v>
       </c>
       <c r="D10">
-        <v>1.003876478611782</v>
+        <v>1.032927737448151</v>
       </c>
       <c r="E10">
-        <v>0.9921441906658595</v>
+        <v>1.031872981529407</v>
       </c>
       <c r="F10">
-        <v>0.9484526231340242</v>
+        <v>1.02442697395725</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034866814374511</v>
+        <v>1.034455222681977</v>
       </c>
       <c r="J10">
-        <v>1.010930593041022</v>
+        <v>1.034433175137988</v>
       </c>
       <c r="K10">
-        <v>1.018176093006889</v>
+        <v>1.036384348886981</v>
       </c>
       <c r="L10">
-        <v>1.006656747736642</v>
+        <v>1.035333390549597</v>
       </c>
       <c r="M10">
-        <v>0.9638194248875281</v>
+        <v>1.027914437661363</v>
       </c>
       <c r="N10">
-        <v>1.0123662304385</v>
+        <v>1.035902188897828</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.978242914644327</v>
+        <v>1.027374404409513</v>
       </c>
       <c r="D11">
-        <v>1.00111708986681</v>
+        <v>1.032417593090921</v>
       </c>
       <c r="E11">
-        <v>0.9888204702359402</v>
+        <v>1.031237969789554</v>
       </c>
       <c r="F11">
-        <v>0.9425420747438017</v>
+        <v>1.02333299146078</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033666160800667</v>
+        <v>1.034281570369356</v>
       </c>
       <c r="J11">
-        <v>1.008549685818904</v>
+        <v>1.033998041029314</v>
       </c>
       <c r="K11">
-        <v>1.016017970212724</v>
+        <v>1.035998028229941</v>
       </c>
       <c r="L11">
-        <v>1.003956341221791</v>
+        <v>1.034822817225199</v>
       </c>
       <c r="M11">
-        <v>0.9586354888164761</v>
+        <v>1.026947697810813</v>
       </c>
       <c r="N11">
-        <v>1.009981942055033</v>
+        <v>1.035466436848809</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9768332488427435</v>
+        <v>1.027124928412889</v>
       </c>
       <c r="D12">
-        <v>1.000078063917378</v>
+        <v>1.032228063657148</v>
       </c>
       <c r="E12">
-        <v>0.9875691064775319</v>
+        <v>1.031002125100668</v>
       </c>
       <c r="F12">
-        <v>0.9403081934256976</v>
+        <v>1.022926550530923</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033211926250564</v>
+        <v>1.034216832058781</v>
       </c>
       <c r="J12">
-        <v>1.007651490824092</v>
+        <v>1.033836268619458</v>
       </c>
       <c r="K12">
-        <v>1.015203768498575</v>
+        <v>1.035854370001414</v>
       </c>
       <c r="L12">
-        <v>1.00293840179264</v>
+        <v>1.034633080791507</v>
       </c>
       <c r="M12">
-        <v>0.956675886652558</v>
+        <v>1.026588441650498</v>
       </c>
       <c r="N12">
-        <v>1.009082471520304</v>
+        <v>1.035304434703575</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9771365671396721</v>
+        <v>1.027178443708193</v>
       </c>
       <c r="D13">
-        <v>1.000301590432223</v>
+        <v>1.032268720138733</v>
       </c>
       <c r="E13">
-        <v>0.9878383071402452</v>
+        <v>1.031052713380233</v>
       </c>
       <c r="F13">
-        <v>0.9407891641851858</v>
+        <v>1.023013737557771</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033309742771533</v>
+        <v>1.034230729335968</v>
       </c>
       <c r="J13">
-        <v>1.007844797454957</v>
+        <v>1.03387097589127</v>
       </c>
       <c r="K13">
-        <v>1.015379000226266</v>
+        <v>1.035885192498288</v>
       </c>
       <c r="L13">
-        <v>1.003157443691996</v>
+        <v>1.034673783840576</v>
       </c>
       <c r="M13">
-        <v>0.9570978172857946</v>
+        <v>1.026665510934162</v>
       </c>
       <c r="N13">
-        <v>1.009276052668758</v>
+        <v>1.035339191263695</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9781268128913687</v>
+        <v>1.027353783476623</v>
       </c>
       <c r="D14">
-        <v>1.001031496111811</v>
+        <v>1.032401927328362</v>
       </c>
       <c r="E14">
-        <v>0.9887173814466711</v>
+        <v>1.031218474248835</v>
       </c>
       <c r="F14">
-        <v>0.942358225649936</v>
+        <v>1.023299396749096</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033628784946448</v>
+        <v>1.0342762238989</v>
       </c>
       <c r="J14">
-        <v>1.008475728162856</v>
+        <v>1.033984671818742</v>
       </c>
       <c r="K14">
-        <v>1.01595092947053</v>
+        <v>1.035986156694606</v>
       </c>
       <c r="L14">
-        <v>1.003872507724867</v>
+        <v>1.034807135327313</v>
       </c>
       <c r="M14">
-        <v>0.9584742194615261</v>
+        <v>1.02691800500876</v>
       </c>
       <c r="N14">
-        <v>1.009907879370631</v>
+        <v>1.035453048652424</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9787342082937079</v>
+        <v>1.027461810708107</v>
       </c>
       <c r="D15">
-        <v>1.001479322825392</v>
+        <v>1.032483995483032</v>
       </c>
       <c r="E15">
-        <v>0.989256748304277</v>
+        <v>1.031320608537965</v>
       </c>
       <c r="F15">
-        <v>0.9433197792862523</v>
+        <v>1.023475389027106</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033824248388169</v>
+        <v>1.034304223303851</v>
       </c>
       <c r="J15">
-        <v>1.00886260580237</v>
+        <v>1.034054704494213</v>
       </c>
       <c r="K15">
-        <v>1.016301622315928</v>
+        <v>1.036048342645732</v>
       </c>
       <c r="L15">
-        <v>1.004311078661305</v>
+        <v>1.034889286056673</v>
       </c>
       <c r="M15">
-        <v>0.9593176647930078</v>
+        <v>1.02707355275074</v>
       </c>
       <c r="N15">
-        <v>1.010295306420767</v>
+        <v>1.035523180782328</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.982228949322185</v>
+        <v>1.028090494604243</v>
       </c>
       <c r="D16">
-        <v>1.004057688834598</v>
+        <v>1.032961588582249</v>
       </c>
       <c r="E16">
-        <v>0.992362485225198</v>
+        <v>1.031915128988597</v>
       </c>
       <c r="F16">
-        <v>0.9488396818497359</v>
+        <v>1.024499566182822</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034945366154956</v>
+        <v>1.034466714321217</v>
       </c>
       <c r="J16">
-        <v>1.01108671905162</v>
+        <v>1.034462033378076</v>
       </c>
       <c r="K16">
-        <v>1.018317601335169</v>
+        <v>1.036409965095517</v>
       </c>
       <c r="L16">
-        <v>1.006833932552345</v>
+        <v>1.03536726349783</v>
       </c>
       <c r="M16">
-        <v>0.9641588490373918</v>
+        <v>1.02797857410272</v>
       </c>
       <c r="N16">
-        <v>1.012522578165941</v>
+        <v>1.035931088119926</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9843865164135024</v>
+        <v>1.028484780870041</v>
       </c>
       <c r="D17">
-        <v>1.005650956367601</v>
+        <v>1.033261100765238</v>
       </c>
       <c r="E17">
-        <v>0.9942819620556198</v>
+        <v>1.032288104813343</v>
       </c>
       <c r="F17">
-        <v>0.9522372598265791</v>
+        <v>1.025141858586368</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035634409804695</v>
+        <v>1.034568220248032</v>
       </c>
       <c r="J17">
-        <v>1.012458208431154</v>
+        <v>1.034717283954323</v>
       </c>
       <c r="K17">
-        <v>1.019560624050179</v>
+        <v>1.036636514069917</v>
       </c>
       <c r="L17">
-        <v>1.008390997536943</v>
+        <v>1.03566693240134</v>
       </c>
       <c r="M17">
-        <v>0.9671379868813399</v>
+        <v>1.028545981667249</v>
       </c>
       <c r="N17">
-        <v>1.013896015217706</v>
+        <v>1.036186701181269</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9856329536126899</v>
+        <v>1.028714736372813</v>
       </c>
       <c r="D18">
-        <v>1.006571890057493</v>
+        <v>1.033435776260136</v>
       </c>
       <c r="E18">
-        <v>0.9953915829976057</v>
+        <v>1.032505673155713</v>
       </c>
       <c r="F18">
-        <v>0.9541966321214782</v>
+        <v>1.025516446447464</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036031344592914</v>
+        <v>1.034627275539383</v>
       </c>
       <c r="J18">
-        <v>1.013249938166944</v>
+        <v>1.034866075293517</v>
       </c>
       <c r="K18">
-        <v>1.020278140215336</v>
+        <v>1.036768552924063</v>
       </c>
       <c r="L18">
-        <v>1.009290340703582</v>
+        <v>1.035841669073883</v>
       </c>
       <c r="M18">
-        <v>0.9688557783903484</v>
+        <v>1.028876839127223</v>
       </c>
       <c r="N18">
-        <v>1.014688869300534</v>
+        <v>1.036335703821232</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9860559543527269</v>
+        <v>1.028793141054417</v>
       </c>
       <c r="D19">
-        <v>1.006884506959428</v>
+        <v>1.033495331876662</v>
       </c>
       <c r="E19">
-        <v>0.9957682750108926</v>
+        <v>1.032579861389732</v>
       </c>
       <c r="F19">
-        <v>0.9548610236142766</v>
+        <v>1.025644162909975</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036165858931153</v>
+        <v>1.034647386197828</v>
       </c>
       <c r="J19">
-        <v>1.013518526078207</v>
+        <v>1.034916793716208</v>
       </c>
       <c r="K19">
-        <v>1.020521542019192</v>
+        <v>1.036813557252111</v>
       </c>
       <c r="L19">
-        <v>1.009595517490576</v>
+        <v>1.035901240438151</v>
       </c>
       <c r="M19">
-        <v>0.9694382062277154</v>
+        <v>1.028989635913618</v>
       </c>
       <c r="N19">
-        <v>1.014957838637438</v>
+        <v>1.036386494269901</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9841562841656076</v>
+        <v>1.028442480280695</v>
       </c>
       <c r="D20">
-        <v>1.005480888091761</v>
+        <v>1.033228968519544</v>
       </c>
       <c r="E20">
-        <v>0.994077060125737</v>
+        <v>1.032248086195814</v>
       </c>
       <c r="F20">
-        <v>0.9518750685538497</v>
+        <v>1.025072951961747</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035560999487278</v>
+        <v>1.034557345284879</v>
       </c>
       <c r="J20">
-        <v>1.012311918733601</v>
+        <v>1.034689907505649</v>
       </c>
       <c r="K20">
-        <v>1.019428042502482</v>
+        <v>1.036612218200904</v>
       </c>
       <c r="L20">
-        <v>1.008224863011483</v>
+        <v>1.035634786472129</v>
       </c>
       <c r="M20">
-        <v>0.9668204297947121</v>
+        <v>1.028485114780349</v>
       </c>
       <c r="N20">
-        <v>1.013749517772003</v>
+        <v>1.036159285854898</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9778357811033802</v>
+        <v>1.027302151409575</v>
       </c>
       <c r="D21">
-        <v>1.000816953035431</v>
+        <v>1.032362702213149</v>
       </c>
       <c r="E21">
-        <v>0.9884589889428721</v>
+        <v>1.031169661066957</v>
       </c>
       <c r="F21">
-        <v>0.9418972651897917</v>
+        <v>1.023215279704739</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033535066907805</v>
+        <v>1.034262833404495</v>
       </c>
       <c r="J21">
-        <v>1.008290323939407</v>
+        <v>1.033951195190358</v>
       </c>
       <c r="K21">
-        <v>1.015782864503375</v>
+        <v>1.035956429719113</v>
       </c>
       <c r="L21">
-        <v>1.003662358489749</v>
+        <v>1.034767869040153</v>
       </c>
       <c r="M21">
-        <v>0.9580698674058774</v>
+        <v>1.026843656432092</v>
       </c>
       <c r="N21">
-        <v>1.009722211851917</v>
+        <v>1.035419524483388</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9737438363589149</v>
+        <v>1.026584947233764</v>
       </c>
       <c r="D22">
-        <v>0.9978026565459364</v>
+        <v>1.031817819792721</v>
       </c>
       <c r="E22">
-        <v>0.9848289230712464</v>
+        <v>1.03049176789212</v>
       </c>
       <c r="F22">
-        <v>0.935399520769732</v>
+        <v>1.022046779491933</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032213236633228</v>
+        <v>1.034076295871784</v>
       </c>
       <c r="J22">
-        <v>1.005681315670013</v>
+        <v>1.033485902542698</v>
       </c>
       <c r="K22">
-        <v>1.013417769280146</v>
+        <v>1.035543174585516</v>
       </c>
       <c r="L22">
-        <v>1.000707034295876</v>
+        <v>1.034222301210299</v>
       </c>
       <c r="M22">
-        <v>0.9523693684391007</v>
+        <v>1.025810642998118</v>
       </c>
       <c r="N22">
-        <v>1.007109498491523</v>
+        <v>1.034953571066798</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9759247311358465</v>
+        <v>1.026965173365186</v>
       </c>
       <c r="D23">
-        <v>0.9994086789219454</v>
+        <v>1.032106693840467</v>
       </c>
       <c r="E23">
-        <v>0.9867629621566938</v>
+        <v>1.030851117411219</v>
       </c>
       <c r="F23">
-        <v>0.9388665434467014</v>
+        <v>1.022666274317716</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032918685619226</v>
+        <v>1.034175312560852</v>
       </c>
       <c r="J23">
-        <v>1.007072351659519</v>
+        <v>1.033732642412025</v>
       </c>
       <c r="K23">
-        <v>1.014678775768543</v>
+        <v>1.035762337762646</v>
       </c>
       <c r="L23">
-        <v>1.002282277153109</v>
+        <v>1.034511564946367</v>
       </c>
       <c r="M23">
-        <v>0.9554111582392241</v>
+        <v>1.026358356550976</v>
       </c>
       <c r="N23">
-        <v>1.008502509911689</v>
+        <v>1.035200661335042</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9842603532999298</v>
+        <v>1.028461594173077</v>
       </c>
       <c r="D24">
-        <v>1.005557760493986</v>
+        <v>1.03324348777498</v>
       </c>
       <c r="E24">
-        <v>0.9941696772386011</v>
+        <v>1.032266168831033</v>
       </c>
       <c r="F24">
-        <v>0.9520387961137646</v>
+        <v>1.025104088053397</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03559418578281</v>
+        <v>1.034562259680282</v>
       </c>
       <c r="J24">
-        <v>1.012378046139341</v>
+        <v>1.034702278028381</v>
       </c>
       <c r="K24">
-        <v>1.019487973571969</v>
+        <v>1.03662319677735</v>
       </c>
       <c r="L24">
-        <v>1.008299959380905</v>
+        <v>1.035649312003877</v>
       </c>
       <c r="M24">
-        <v>0.9669639814314566</v>
+        <v>1.028512618219436</v>
       </c>
       <c r="N24">
-        <v>1.013815739086244</v>
+        <v>1.036171673945191</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9934650223809106</v>
+        <v>1.030197130742664</v>
       </c>
       <c r="D25">
-        <v>1.01236668596044</v>
+        <v>1.034561698245728</v>
       </c>
       <c r="E25">
-        <v>1.002376456253866</v>
+        <v>1.033908960197357</v>
       </c>
       <c r="F25">
-        <v>0.9664550451360578</v>
+        <v>1.027931084223375</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038505151448619</v>
+        <v>1.035005352320136</v>
       </c>
       <c r="J25">
-        <v>1.018214333969994</v>
+        <v>1.035823880053503</v>
       </c>
       <c r="K25">
-        <v>1.024776011102498</v>
+        <v>1.0376181242518</v>
       </c>
       <c r="L25">
-        <v>1.014937992477248</v>
+        <v>1.036967444365062</v>
       </c>
       <c r="M25">
-        <v>0.9795974258998774</v>
+        <v>1.031008550371833</v>
       </c>
       <c r="N25">
-        <v>1.019660315115048</v>
+        <v>1.037294868773838</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_168/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_168/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031580648947838</v>
+        <v>1.000472630464211</v>
       </c>
       <c r="D2">
-        <v>1.035612323162507</v>
+        <v>1.017562691157903</v>
       </c>
       <c r="E2">
-        <v>1.035219840682011</v>
+        <v>1.008644969194799</v>
       </c>
       <c r="F2">
-        <v>1.030184597301502</v>
+        <v>0.9773530476777346</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035353984675241</v>
+        <v>1.040685408594489</v>
       </c>
       <c r="J2">
-        <v>1.03671558986735</v>
+        <v>1.022639214420091</v>
       </c>
       <c r="K2">
-        <v>1.038408428788788</v>
+        <v>1.028782654185709</v>
       </c>
       <c r="L2">
-        <v>1.0380170713037</v>
+        <v>1.019985165506428</v>
       </c>
       <c r="M2">
-        <v>1.032996343376906</v>
+        <v>0.9891371746383731</v>
       </c>
       <c r="N2">
-        <v>1.038187844917921</v>
+        <v>1.024091479402925</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032584800311452</v>
+        <v>1.005385963787194</v>
       </c>
       <c r="D3">
-        <v>1.036374725853028</v>
+        <v>1.021211722193131</v>
       </c>
       <c r="E3">
-        <v>1.036172015830103</v>
+        <v>1.01305125945881</v>
       </c>
       <c r="F3">
-        <v>1.03182024049123</v>
+        <v>0.9849602295050028</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035604357769741</v>
+        <v>1.042192755921326</v>
       </c>
       <c r="J3">
-        <v>1.037361397781079</v>
+        <v>1.025730871142262</v>
       </c>
       <c r="K3">
-        <v>1.038980387374563</v>
+        <v>1.031580202441729</v>
       </c>
       <c r="L3">
-        <v>1.038778216293469</v>
+        <v>1.023519826674072</v>
       </c>
       <c r="M3">
-        <v>1.034438066176892</v>
+        <v>0.9957892339709752</v>
       </c>
       <c r="N3">
-        <v>1.038834569952944</v>
+        <v>1.02718752663226</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033234373658651</v>
+        <v>1.008489905372387</v>
       </c>
       <c r="D4">
-        <v>1.036867847721962</v>
+        <v>1.023519305298938</v>
       </c>
       <c r="E4">
-        <v>1.036788308065755</v>
+        <v>1.01583982309709</v>
       </c>
       <c r="F4">
-        <v>1.032878376671704</v>
+        <v>0.9897533800976945</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035765088307554</v>
+        <v>1.043134947280195</v>
       </c>
       <c r="J4">
-        <v>1.037778519231655</v>
+        <v>1.027678903824756</v>
       </c>
       <c r="K4">
-        <v>1.039349619701264</v>
+        <v>1.033341923865453</v>
       </c>
       <c r="L4">
-        <v>1.039270280846643</v>
+        <v>1.025750761596113</v>
       </c>
       <c r="M4">
-        <v>1.035370261352346</v>
+        <v>0.9999770664783378</v>
       </c>
       <c r="N4">
-        <v>1.039252283763823</v>
+        <v>1.029138325744605</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033507412127436</v>
+        <v>1.009777537954874</v>
       </c>
       <c r="D5">
-        <v>1.037075107434477</v>
+        <v>1.024477088932427</v>
       </c>
       <c r="E5">
-        <v>1.037047438738481</v>
+        <v>1.016997778835999</v>
       </c>
       <c r="F5">
-        <v>1.033323167423243</v>
+        <v>0.9917391526598588</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035832353730503</v>
+        <v>1.043523361418128</v>
       </c>
       <c r="J5">
-        <v>1.037953695828553</v>
+        <v>1.028485787927457</v>
       </c>
       <c r="K5">
-        <v>1.039504638641469</v>
+        <v>1.034071380609711</v>
       </c>
       <c r="L5">
-        <v>1.039477038237693</v>
+        <v>1.026675726415317</v>
       </c>
       <c r="M5">
-        <v>1.035761995141987</v>
+        <v>1.001711180015655</v>
       </c>
       <c r="N5">
-        <v>1.039427709131582</v>
+        <v>1.029946355715283</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033553254040098</v>
+        <v>1.009992746080835</v>
       </c>
       <c r="D6">
-        <v>1.037109904396018</v>
+        <v>1.024637196362236</v>
       </c>
       <c r="E6">
-        <v>1.037090950359491</v>
+        <v>1.017191380406603</v>
       </c>
       <c r="F6">
-        <v>1.033397847019023</v>
+        <v>0.9920709023598611</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035843629969628</v>
+        <v>1.043588134450975</v>
       </c>
       <c r="J6">
-        <v>1.037983098136771</v>
+        <v>1.028620573348517</v>
       </c>
       <c r="K6">
-        <v>1.039530654913103</v>
+        <v>1.034193216653762</v>
       </c>
       <c r="L6">
-        <v>1.039511747479951</v>
+        <v>1.026830289490653</v>
       </c>
       <c r="M6">
-        <v>1.035827759684792</v>
+        <v>1.002000833995908</v>
       </c>
       <c r="N6">
-        <v>1.039457153194451</v>
+        <v>1.030081332547101</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033238022176647</v>
+        <v>1.008507177642438</v>
       </c>
       <c r="D7">
-        <v>1.036870617327798</v>
+        <v>1.023532151033525</v>
       </c>
       <c r="E7">
-        <v>1.036791770419232</v>
+        <v>1.015855351364678</v>
       </c>
       <c r="F7">
-        <v>1.032884320174821</v>
+        <v>0.9897800269841199</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035765988312398</v>
+        <v>1.043140167151463</v>
       </c>
       <c r="J7">
-        <v>1.037780860661466</v>
+        <v>1.027689732242141</v>
       </c>
       <c r="K7">
-        <v>1.039351691882297</v>
+        <v>1.033351714241371</v>
       </c>
       <c r="L7">
-        <v>1.039273043967063</v>
+        <v>1.025763171099332</v>
       </c>
       <c r="M7">
-        <v>1.035375496344409</v>
+        <v>1.000000339902066</v>
       </c>
       <c r="N7">
-        <v>1.039254628518734</v>
+        <v>1.029149169539585</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031920044336975</v>
+        <v>1.00214918584938</v>
       </c>
       <c r="D8">
-        <v>1.035870022911402</v>
+        <v>1.018807307106803</v>
       </c>
       <c r="E8">
-        <v>1.035541597529167</v>
+        <v>1.010147450288325</v>
       </c>
       <c r="F8">
-        <v>1.03073742295325</v>
+        <v>0.9799517262218934</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035438864068815</v>
+        <v>1.04120185018599</v>
       </c>
       <c r="J8">
-        <v>1.036934001260248</v>
+        <v>1.023695227953962</v>
       </c>
       <c r="K8">
-        <v>1.038601903770697</v>
+        <v>1.029738408059294</v>
       </c>
       <c r="L8">
-        <v>1.038274396706177</v>
+        <v>1.021191700152661</v>
       </c>
       <c r="M8">
-        <v>1.033483727767978</v>
+        <v>0.9914102912301115</v>
       </c>
       <c r="N8">
-        <v>1.038406566480029</v>
+        <v>1.02514899259714</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029596183274567</v>
+        <v>0.9903315749422449</v>
       </c>
       <c r="D9">
-        <v>1.034105285617163</v>
+        <v>1.010046670274962</v>
       </c>
       <c r="E9">
-        <v>1.033339925084832</v>
+        <v>0.999579334966056</v>
       </c>
       <c r="F9">
-        <v>1.026952234288878</v>
+        <v>0.961561342536889</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034852636832519</v>
+        <v>1.037519813476254</v>
       </c>
       <c r="J9">
-        <v>1.035435884910696</v>
+        <v>1.016230431463967</v>
       </c>
       <c r="K9">
-        <v>1.037274056610166</v>
+        <v>1.022978823424951</v>
       </c>
       <c r="L9">
-        <v>1.03651120485671</v>
+        <v>1.01267924085586</v>
       </c>
       <c r="M9">
-        <v>1.030144612309823</v>
+        <v>0.9753104471732038</v>
       </c>
       <c r="N9">
-        <v>1.036906322633425</v>
+        <v>1.017673595239906</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028045933049078</v>
+        <v>0.9819834644204607</v>
       </c>
       <c r="D10">
-        <v>1.032927737448151</v>
+        <v>1.003876478611781</v>
       </c>
       <c r="E10">
-        <v>1.031872981529407</v>
+        <v>0.992144190665859</v>
       </c>
       <c r="F10">
-        <v>1.02442697395725</v>
+        <v>0.9484526231340239</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034455222681977</v>
+        <v>1.034866814374511</v>
       </c>
       <c r="J10">
-        <v>1.034433175137988</v>
+        <v>1.010930593041021</v>
       </c>
       <c r="K10">
-        <v>1.036384348886981</v>
+        <v>1.018176093006889</v>
       </c>
       <c r="L10">
-        <v>1.035333390549597</v>
+        <v>1.006656747736641</v>
       </c>
       <c r="M10">
-        <v>1.027914437661363</v>
+        <v>0.9638194248875275</v>
       </c>
       <c r="N10">
-        <v>1.035902188897828</v>
+        <v>1.012366230438499</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027374404409513</v>
+        <v>0.9782429146443268</v>
       </c>
       <c r="D11">
-        <v>1.032417593090921</v>
+        <v>1.00111708986681</v>
       </c>
       <c r="E11">
-        <v>1.031237969789554</v>
+        <v>0.9888204702359401</v>
       </c>
       <c r="F11">
-        <v>1.02333299146078</v>
+        <v>0.9425420747438005</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034281570369356</v>
+        <v>1.033666160800667</v>
       </c>
       <c r="J11">
-        <v>1.033998041029314</v>
+        <v>1.008549685818904</v>
       </c>
       <c r="K11">
-        <v>1.035998028229941</v>
+        <v>1.016017970212723</v>
       </c>
       <c r="L11">
-        <v>1.034822817225199</v>
+        <v>1.003956341221791</v>
       </c>
       <c r="M11">
-        <v>1.026947697810813</v>
+        <v>0.9586354888164751</v>
       </c>
       <c r="N11">
-        <v>1.035466436848809</v>
+        <v>1.009981942055032</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027124928412889</v>
+        <v>0.9768332488427424</v>
       </c>
       <c r="D12">
-        <v>1.032228063657148</v>
+        <v>1.000078063917377</v>
       </c>
       <c r="E12">
-        <v>1.031002125100668</v>
+        <v>0.9875691064775307</v>
       </c>
       <c r="F12">
-        <v>1.022926550530923</v>
+        <v>0.9403081934256967</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034216832058781</v>
+        <v>1.033211926250564</v>
       </c>
       <c r="J12">
-        <v>1.033836268619458</v>
+        <v>1.007651490824091</v>
       </c>
       <c r="K12">
-        <v>1.035854370001414</v>
+        <v>1.015203768498574</v>
       </c>
       <c r="L12">
-        <v>1.034633080791507</v>
+        <v>1.002938401792639</v>
       </c>
       <c r="M12">
-        <v>1.026588441650498</v>
+        <v>0.9566758866525572</v>
       </c>
       <c r="N12">
-        <v>1.035304434703575</v>
+        <v>1.009082471520303</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027178443708193</v>
+        <v>0.9771365671396713</v>
       </c>
       <c r="D13">
-        <v>1.032268720138733</v>
+        <v>1.000301590432222</v>
       </c>
       <c r="E13">
-        <v>1.031052713380233</v>
+        <v>0.9878383071402442</v>
       </c>
       <c r="F13">
-        <v>1.023013737557771</v>
+        <v>0.9407891641851851</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034230729335968</v>
+        <v>1.033309742771533</v>
       </c>
       <c r="J13">
-        <v>1.03387097589127</v>
+        <v>1.007844797454957</v>
       </c>
       <c r="K13">
-        <v>1.035885192498288</v>
+        <v>1.015379000226265</v>
       </c>
       <c r="L13">
-        <v>1.034673783840576</v>
+        <v>1.003157443691995</v>
       </c>
       <c r="M13">
-        <v>1.026665510934162</v>
+        <v>0.9570978172857938</v>
       </c>
       <c r="N13">
-        <v>1.035339191263695</v>
+        <v>1.009276052668757</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027353783476623</v>
+        <v>0.9781268128913682</v>
       </c>
       <c r="D14">
-        <v>1.032401927328362</v>
+        <v>1.001031496111811</v>
       </c>
       <c r="E14">
-        <v>1.031218474248835</v>
+        <v>0.9887173814466704</v>
       </c>
       <c r="F14">
-        <v>1.023299396749096</v>
+        <v>0.9423582256499349</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0342762238989</v>
+        <v>1.033628784946448</v>
       </c>
       <c r="J14">
-        <v>1.033984671818742</v>
+        <v>1.008475728162856</v>
       </c>
       <c r="K14">
-        <v>1.035986156694606</v>
+        <v>1.015950929470529</v>
       </c>
       <c r="L14">
-        <v>1.034807135327313</v>
+        <v>1.003872507724867</v>
       </c>
       <c r="M14">
-        <v>1.02691800500876</v>
+        <v>0.9584742194615248</v>
       </c>
       <c r="N14">
-        <v>1.035453048652424</v>
+        <v>1.00990787937063</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027461810708107</v>
+        <v>0.9787342082937072</v>
       </c>
       <c r="D15">
-        <v>1.032483995483032</v>
+        <v>1.001479322825391</v>
       </c>
       <c r="E15">
-        <v>1.031320608537965</v>
+        <v>0.9892567483042763</v>
       </c>
       <c r="F15">
-        <v>1.023475389027106</v>
+        <v>0.9433197792862517</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034304223303851</v>
+        <v>1.033824248388169</v>
       </c>
       <c r="J15">
-        <v>1.034054704494213</v>
+        <v>1.008862605802369</v>
       </c>
       <c r="K15">
-        <v>1.036048342645732</v>
+        <v>1.016301622315928</v>
       </c>
       <c r="L15">
-        <v>1.034889286056673</v>
+        <v>1.004311078661304</v>
       </c>
       <c r="M15">
-        <v>1.02707355275074</v>
+        <v>0.9593176647930073</v>
       </c>
       <c r="N15">
-        <v>1.035523180782328</v>
+        <v>1.010295306420767</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028090494604243</v>
+        <v>0.9822289493221844</v>
       </c>
       <c r="D16">
-        <v>1.032961588582249</v>
+        <v>1.004057688834597</v>
       </c>
       <c r="E16">
-        <v>1.031915128988597</v>
+        <v>0.9923624852251975</v>
       </c>
       <c r="F16">
-        <v>1.024499566182822</v>
+        <v>0.9488396818497352</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034466714321217</v>
+        <v>1.034945366154955</v>
       </c>
       <c r="J16">
-        <v>1.034462033378076</v>
+        <v>1.011086719051619</v>
       </c>
       <c r="K16">
-        <v>1.036409965095517</v>
+        <v>1.018317601335169</v>
       </c>
       <c r="L16">
-        <v>1.03536726349783</v>
+        <v>1.006833932552345</v>
       </c>
       <c r="M16">
-        <v>1.02797857410272</v>
+        <v>0.9641588490373915</v>
       </c>
       <c r="N16">
-        <v>1.035931088119926</v>
+        <v>1.012522578165941</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028484780870041</v>
+        <v>0.9843865164135021</v>
       </c>
       <c r="D17">
-        <v>1.033261100765238</v>
+        <v>1.0056509563676</v>
       </c>
       <c r="E17">
-        <v>1.032288104813343</v>
+        <v>0.9942819620556195</v>
       </c>
       <c r="F17">
-        <v>1.025141858586368</v>
+        <v>0.952237259826579</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034568220248032</v>
+        <v>1.035634409804695</v>
       </c>
       <c r="J17">
-        <v>1.034717283954323</v>
+        <v>1.012458208431154</v>
       </c>
       <c r="K17">
-        <v>1.036636514069917</v>
+        <v>1.019560624050178</v>
       </c>
       <c r="L17">
-        <v>1.03566693240134</v>
+        <v>1.008390997536942</v>
       </c>
       <c r="M17">
-        <v>1.028545981667249</v>
+        <v>0.9671379868813398</v>
       </c>
       <c r="N17">
-        <v>1.036186701181269</v>
+        <v>1.013896015217705</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028714736372813</v>
+        <v>0.9856329536126888</v>
       </c>
       <c r="D18">
-        <v>1.033435776260136</v>
+        <v>1.006571890057492</v>
       </c>
       <c r="E18">
-        <v>1.032505673155713</v>
+        <v>0.9953915829976046</v>
       </c>
       <c r="F18">
-        <v>1.025516446447464</v>
+        <v>0.9541966321214768</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034627275539383</v>
+        <v>1.036031344592913</v>
       </c>
       <c r="J18">
-        <v>1.034866075293517</v>
+        <v>1.013249938166943</v>
       </c>
       <c r="K18">
-        <v>1.036768552924063</v>
+        <v>1.020278140215335</v>
       </c>
       <c r="L18">
-        <v>1.035841669073883</v>
+        <v>1.009290340703581</v>
       </c>
       <c r="M18">
-        <v>1.028876839127223</v>
+        <v>0.9688557783903472</v>
       </c>
       <c r="N18">
-        <v>1.036335703821232</v>
+        <v>1.014688869300532</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028793141054417</v>
+        <v>0.9860559543527264</v>
       </c>
       <c r="D19">
-        <v>1.033495331876662</v>
+        <v>1.006884506959428</v>
       </c>
       <c r="E19">
-        <v>1.032579861389732</v>
+        <v>0.9957682750108917</v>
       </c>
       <c r="F19">
-        <v>1.025644162909975</v>
+        <v>0.9548610236142764</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034647386197828</v>
+        <v>1.036165858931153</v>
       </c>
       <c r="J19">
-        <v>1.034916793716208</v>
+        <v>1.013518526078207</v>
       </c>
       <c r="K19">
-        <v>1.036813557252111</v>
+        <v>1.020521542019192</v>
       </c>
       <c r="L19">
-        <v>1.035901240438151</v>
+        <v>1.009595517490575</v>
       </c>
       <c r="M19">
-        <v>1.028989635913618</v>
+        <v>0.969438206227715</v>
       </c>
       <c r="N19">
-        <v>1.036386494269901</v>
+        <v>1.014957838637438</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028442480280695</v>
+        <v>0.9841562841656075</v>
       </c>
       <c r="D20">
-        <v>1.033228968519544</v>
+        <v>1.005480888091761</v>
       </c>
       <c r="E20">
-        <v>1.032248086195814</v>
+        <v>0.9940770601257369</v>
       </c>
       <c r="F20">
-        <v>1.025072951961747</v>
+        <v>0.9518750685538496</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034557345284879</v>
+        <v>1.035560999487278</v>
       </c>
       <c r="J20">
-        <v>1.034689907505649</v>
+        <v>1.012311918733601</v>
       </c>
       <c r="K20">
-        <v>1.036612218200904</v>
+        <v>1.019428042502482</v>
       </c>
       <c r="L20">
-        <v>1.035634786472129</v>
+        <v>1.008224863011483</v>
       </c>
       <c r="M20">
-        <v>1.028485114780349</v>
+        <v>0.9668204297947121</v>
       </c>
       <c r="N20">
-        <v>1.036159285854898</v>
+        <v>1.013749517772003</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027302151409575</v>
+        <v>0.9778357811033789</v>
       </c>
       <c r="D21">
-        <v>1.032362702213149</v>
+        <v>1.00081695303543</v>
       </c>
       <c r="E21">
-        <v>1.031169661066957</v>
+        <v>0.9884589889428711</v>
       </c>
       <c r="F21">
-        <v>1.023215279704739</v>
+        <v>0.9418972651897899</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034262833404495</v>
+        <v>1.033535066907805</v>
       </c>
       <c r="J21">
-        <v>1.033951195190358</v>
+        <v>1.008290323939406</v>
       </c>
       <c r="K21">
-        <v>1.035956429719113</v>
+        <v>1.015782864503374</v>
       </c>
       <c r="L21">
-        <v>1.034767869040153</v>
+        <v>1.003662358489748</v>
       </c>
       <c r="M21">
-        <v>1.026843656432092</v>
+        <v>0.958069867405876</v>
       </c>
       <c r="N21">
-        <v>1.035419524483388</v>
+        <v>1.009722211851916</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026584947233764</v>
+        <v>0.9737438363589153</v>
       </c>
       <c r="D22">
-        <v>1.031817819792721</v>
+        <v>0.9978026565459367</v>
       </c>
       <c r="E22">
-        <v>1.03049176789212</v>
+        <v>0.9848289230712469</v>
       </c>
       <c r="F22">
-        <v>1.022046779491933</v>
+        <v>0.935399520769732</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034076295871784</v>
+        <v>1.032213236633228</v>
       </c>
       <c r="J22">
-        <v>1.033485902542698</v>
+        <v>1.005681315670013</v>
       </c>
       <c r="K22">
-        <v>1.035543174585516</v>
+        <v>1.013417769280147</v>
       </c>
       <c r="L22">
-        <v>1.034222301210299</v>
+        <v>1.000707034295876</v>
       </c>
       <c r="M22">
-        <v>1.025810642998118</v>
+        <v>0.9523693684391007</v>
       </c>
       <c r="N22">
-        <v>1.034953571066798</v>
+        <v>1.007109498491524</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026965173365186</v>
+        <v>0.9759247311358473</v>
       </c>
       <c r="D23">
-        <v>1.032106693840467</v>
+        <v>0.9994086789219457</v>
       </c>
       <c r="E23">
-        <v>1.030851117411219</v>
+        <v>0.9867629621566943</v>
       </c>
       <c r="F23">
-        <v>1.022666274317716</v>
+        <v>0.9388665434467025</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034175312560852</v>
+        <v>1.032918685619227</v>
       </c>
       <c r="J23">
-        <v>1.033732642412025</v>
+        <v>1.00707235165952</v>
       </c>
       <c r="K23">
-        <v>1.035762337762646</v>
+        <v>1.014678775768543</v>
       </c>
       <c r="L23">
-        <v>1.034511564946367</v>
+        <v>1.002282277153109</v>
       </c>
       <c r="M23">
-        <v>1.026358356550976</v>
+        <v>0.9554111582392253</v>
       </c>
       <c r="N23">
-        <v>1.035200661335042</v>
+        <v>1.00850250991169</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028461594173077</v>
+        <v>0.98426035329993</v>
       </c>
       <c r="D24">
-        <v>1.03324348777498</v>
+        <v>1.005557760493986</v>
       </c>
       <c r="E24">
-        <v>1.032266168831033</v>
+        <v>0.9941696772386008</v>
       </c>
       <c r="F24">
-        <v>1.025104088053397</v>
+        <v>0.9520387961137652</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034562259680282</v>
+        <v>1.035594185782811</v>
       </c>
       <c r="J24">
-        <v>1.034702278028381</v>
+        <v>1.012378046139341</v>
       </c>
       <c r="K24">
-        <v>1.03662319677735</v>
+        <v>1.019487973571969</v>
       </c>
       <c r="L24">
-        <v>1.035649312003877</v>
+        <v>1.008299959380905</v>
       </c>
       <c r="M24">
-        <v>1.028512618219436</v>
+        <v>0.9669639814314572</v>
       </c>
       <c r="N24">
-        <v>1.036171673945191</v>
+        <v>1.013815739086244</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030197130742664</v>
+        <v>0.9934650223809081</v>
       </c>
       <c r="D25">
-        <v>1.034561698245728</v>
+        <v>1.012366685960438</v>
       </c>
       <c r="E25">
-        <v>1.033908960197357</v>
+        <v>1.002376456253864</v>
       </c>
       <c r="F25">
-        <v>1.027931084223375</v>
+        <v>0.9664550451360554</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035005352320136</v>
+        <v>1.038505151448617</v>
       </c>
       <c r="J25">
-        <v>1.035823880053503</v>
+        <v>1.018214333969991</v>
       </c>
       <c r="K25">
-        <v>1.0376181242518</v>
+        <v>1.024776011102496</v>
       </c>
       <c r="L25">
-        <v>1.036967444365062</v>
+        <v>1.014937992477245</v>
       </c>
       <c r="M25">
-        <v>1.031008550371833</v>
+        <v>0.9795974258998749</v>
       </c>
       <c r="N25">
-        <v>1.037294868773838</v>
+        <v>1.019660315115045</v>
       </c>
     </row>
   </sheetData>
